--- a/docs/assets/disciplinas/LOT2050.xlsx
+++ b/docs/assets/disciplinas/LOT2050.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar as principais técnicas na área Microbiologia que visam o isolamento, cultivo e caracterização de microrganismos</t>
+    <t>5840685 - Maria Bernadete de Medeiros</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,61 +79,49 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840685 - Maria Bernadete de Medeiros</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Biosafety in the microbiology laboratory. Microscopy techniques for microbial cells visualizations. Cultivation and control of the microorganism growths. Quantification of microbial cells. Microbial analysis of different samples types</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>1.Application of biosafety techniques for use in microbiology laboratory and microorganisms presence perception in the environment 2.Description of the microscope operation for prokaryotic and eukaryotic cells observations: Gram staining and Vital staining cells techniques3.Preparation and sterilization of culture media – nutritional requirements.4.Microorganisms seeding techniques and strain isolation in pure culture 5.Action of physical and chemical agents on the microorganisms growth. 6.Microorganisms Quantitation methods: Colony Forming Units (CFUs), Turbidimetry and Cell counting with Microscopy chambers. 7.Bacteria analysis in water and milk samples8.Antibiogram analysis</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>8853480 - Tatiane da Franca Silva</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Noções de biossegurança no laboratório de microbiologia geral. Técnicas de microscopia para visualização de células microbianas. Cultivo e controle do crescimento de microrganismos. Análise microbiológica de diferentes tipos de amostras.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Biosafety in the microbiology laboratory. Microscopy techniques for microbial cells visualizations. Cultivation and control of the microorganism growths. Quantification of microbial cells. Microbial analysis of different samples types</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1.Aplicação das técnicas de biossegurança no laboratório de microbiologia e percepção da presença de microrganismos no ambiente 2.Descrição do funcionamento do microscópio na observação das células procarióticas e eucarióticas: Técnicas de coloração de Gram e  Coloração vital.3. Preparo e esterilização de meios de cultura - requerimentos nutricionais.4.Técnicas de semeadura de microrganismos e isolamento de linhagem em cultura pura.5.Ação de agentes físicos e químicos sobre o crescimento microbiano.6.Técnicas de quantificação de microrganismos: Unidade formadora de colônias (UFC), Turbidimetria e Câmara de contagem celular em microscópio.7.Analise bacteriana de amostras de água e leite8.Análise de Antibiograma</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>1.Application of biosafety techniques for use in microbiology laboratory and microorganisms presence perception in the environment 2.Description of the microscope operation for prokaryotic and eukaryotic cells observations: Gram staining and Vital staining cells techniques3.Preparation and sterilization of culture media – nutritional requirements.4.Microorganisms seeding techniques and strain isolation in pure culture 5.Action of physical and chemical agents on the microorganisms growth. 6.Microorganisms Quantitation methods: Colony Forming Units (CFUs), Turbidimetry and Cell counting with Microscopy chambers. 7.Bacteria analysis in water and milk samples8.Antibiogram analysis</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Duas notas - N1 e N2 distribuído no semestre. A composição das "N" fica a critério do docente.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>MF = (N1 + N2 )/2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>NF = (MF + PR)/2, onde PR é uma prova de recuperação.Prova de Recuperação (PR) para alunos com Média Final (MF) maior ou igual a 3,0 e menor do que 5,0. Será considerado aprovado o aluno que tenha obtido Nota Final (NF) igual ou maior do que 5,0</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1.BARBOSA, H.R; TORRES, B.B. Microbiologia Básica. São Paulo, Atheneu, 2006. 2.MADIGAN, M.T., MARTINKO, J.M., PARKER, I. Microbiologia de Brock. São Paulo: Prentice Hall, 20043.OKRA, M.H., RENDE, J.C. Microbiologia: Roteiros de aulas práticas, São Paulo: Tecmed, 2008.4.VERMELHO, A.B., PEREIRA, A.F., COELHO, R.R.R., SOUTO-PADRON, T. Práticas de Microbiologia, Rio de Janeiro: Guanabara-Koogan, 2006.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,34 +609,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -659,30 +653,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -697,7 +691,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -708,39 +702,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOT2050.xlsx
+++ b/docs/assets/disciplinas/LOT2050.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,18 +70,27 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar as principais técnicas na área Microbiologia que visam o isolamento, cultivo e caracterização de microrganismos</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840685 - Maria Bernadete de Medeiros</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>8853480 - Tatiane da Franca Silva</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Noções de biossegurança no laboratório de microbiologia geral. Técnicas de microscopia para visualização de células microbianas. Cultivo e controle do crescimento de microrganismos. Análise microbiológica de diferentes tipos de amostras.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1.Aplicação das técnicas de biossegurança no laboratório de microbiologia e percepção da presença de microrganismos no ambiente 2.Descrição do funcionamento do microscópio na observação das células procarióticas e eucarióticas: Técnicas de coloração de Gram e  Coloração vital.3. Preparo e esterilização de meios de cultura - requerimentos nutricionais.4.Técnicas de semeadura de microrganismos e isolamento de linhagem em cultura pura.5.Ação de agentes físicos e químicos sobre o crescimento microbiano.6.Técnicas de quantificação de microrganismos: Unidade formadora de colônias (UFC), Turbidimetria e Câmara de contagem celular em microscópio.7.Analise bacteriana de amostras de água e leite8.Análise de Antibiograma</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -103,25 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>8853480 - Tatiane da Franca Silva</t>
+    <t>Duas notas - N1 e N2 distribuído no semestre. A composição das "N" fica a critério do docente.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Duas notas - N1 e N2 distribuído no semestre. A composição das "N" fica a critério do docente.</t>
+    <t>MF = (N1 + N2 )/2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>MF = (N1 + N2 )/2</t>
+    <t>NF = (MF + PR)/2, onde PR é uma prova de recuperação.Prova de Recuperação (PR) para alunos com Média Final (MF) maior ou igual a 3,0 e menor do que 5,0. Será considerado aprovado o aluno que tenha obtido Nota Final (NF) igual ou maior do que 5,0</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>NF = (MF + PR)/2, onde PR é uma prova de recuperação.Prova de Recuperação (PR) para alunos com Média Final (MF) maior ou igual a 3,0 e menor do que 5,0. Será considerado aprovado o aluno que tenha obtido Nota Final (NF) igual ou maior do que 5,0</t>
+    <t>1.BARBOSA, H.R; TORRES, B.B. Microbiologia Básica. São Paulo, Atheneu, 2006. 2.MADIGAN, M.T., MARTINKO, J.M., PARKER, I. Microbiologia de Brock. São Paulo: Prentice Hall, 20043.OKRA, M.H., RENDE, J.C. Microbiologia: Roteiros de aulas práticas, São Paulo: Tecmed, 2008.4.VERMELHO, A.B., PEREIRA, A.F., COELHO, R.R.R., SOUTO-PADRON, T. Práticas de Microbiologia, Rio de Janeiro: Guanabara-Koogan, 2006.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -484,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -609,40 +621,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -653,30 +659,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -691,7 +697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -702,17 +708,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
